--- a/techniqo/data_new_ticker/LTI.xlsx
+++ b/techniqo/data_new_ticker/LTI.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1028"/>
+  <dimension ref="A1:G1030"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36366,6 +36366,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1029" t="n">
+        <v>2651</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>2780</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>2647.95</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>2690.8</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>317585</v>
+      </c>
+      <c r="G1029" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1030" t="n">
+        <v>2688</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>2700</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>2670.05</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>2697.6</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>168792</v>
+      </c>
+      <c r="G1030" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/LTI.xlsx
+++ b/techniqo/data_new_ticker/LTI.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1030"/>
+  <dimension ref="A1:G1032"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36416,6 +36416,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1031" t="n">
+        <v>2695</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>2760</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>2675.1</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>2737.95</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>478651</v>
+      </c>
+      <c r="G1031" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1032" t="n">
+        <v>2750</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>2794.35</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>2675</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>2706.9</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>405293</v>
+      </c>
+      <c r="G1032" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
